--- a/robot_path_costmap/benchmark_results/logs_two-rooms_path layer.xlsx
+++ b/robot_path_costmap/benchmark_results/logs_two-rooms_path layer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\Auswertung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\DrivingSwarm\multi_robot_path_planning_new\robot_path_costmap\benchmark_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BEFD89-D91A-4040-A6EF-A8DF966C5533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E01572A-AB68-40D5-8FF5-A92CE635257E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{922866B7-3E43-4576-8381-870090E4D99F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{922866B7-3E43-4576-8381-870090E4D99F}"/>
   </bookViews>
   <sheets>
     <sheet name="wptime" sheetId="1" r:id="rId1"/>
@@ -119,16 +119,16 @@
     <t>in min</t>
   </si>
   <si>
-    <t>dwa 2-rooms</t>
-  </si>
-  <si>
-    <t>dwa 2-rooms: 8</t>
-  </si>
-  <si>
     <t>Aborting/Crash during benchmark, missing following waypoints</t>
   </si>
   <si>
     <t>Aborting/Crash before reaching first waypoint</t>
+  </si>
+  <si>
+    <t>path costmap 2-rooms</t>
+  </si>
+  <si>
+    <t>path costmap 2-rooms: 8</t>
   </si>
 </sst>
 </file>
@@ -533,27 +533,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -602,12 +581,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
@@ -616,14 +589,41 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -685,10 +685,11 @@
               <a:t>Mean Waypoint Time -</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> DWA Local Planner</a:t>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Path Costmap</a:t>
             </a:r>
-            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1422,7 +1423,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t>Time per Robot - DWA Local Planner</a:t>
+              <a:t>Time per Robot - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Path Costmap</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -2144,16 +2151,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" b="1"/>
-              <a:t>DWA</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" b="1" baseline="0"/>
-              <a:t> Local Planner</a:t>
+              <a:rPr lang="de-DE" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Path Costmap </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" b="1"/>
-              <a:t> in 2-Rooms World</a:t>
+              <a:t>in 2-Rooms World</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" b="1" baseline="0"/>
@@ -9136,7 +9141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D32632-F06D-4069-A8A0-F8B64BC39A2F}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
@@ -9151,51 +9156,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="52" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="38"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="31"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
+      <c r="A2" s="32">
         <f t="shared" ref="A2:A17" si="0">IF(OR(AND(D2="tb3_0",B2="[-1.0, -1.0, 0.0]"),AND(D2="tb3_1",B2="[1.0, 2.0, 0.0]"),AND(D2="tb3_2",B2="[1.0, -1.0, 0.0]"),AND(D2="tb3_3",B2="[-1.0, 2.0, 0.0]")),1,
 (IF(OR(AND(D2="tb3_0",B2="[-1.0, 2.0, 0.0]"), AND(D2="tb3_1",B2="[1.0, -1.0, 0.0]"), AND(D2="tb3_2",B2="[1.0, 2.0, 0.0]"), AND(D2="tb3_3",B2="[-1.0, -1.0, 0.0]")),2,
 (IF(OR(AND(D2="tb3_0",B2="[1.0, -1.0, 0.0]"),AND(D2="tb3_1",B2="[-1.0, 2.0, 0.0]"),AND(D2="tb3_2",B2="[-1.0, -1.0, 0.0]"),AND(D2="tb3_3",B2="[1.0, 2.0, 0.0]")),3,
@@ -9205,1222 +9210,1222 @@
       <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="46">
+      <c r="C2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="39">
         <f>AVERAGE(H2:AB2)</f>
         <v>88.054761904761904</v>
       </c>
-      <c r="F2" s="89">
+      <c r="F2" s="80">
         <f>AVERAGE(E2:E5)</f>
         <v>90.087896825396825</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="41">
         <f>AVEDEV(H2:AB2)</f>
         <v>33.741133786848067</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="50">
         <v>141.16999999999999</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="50">
         <v>153.30000000000001</v>
       </c>
-      <c r="J2" s="57">
+      <c r="J2" s="50">
         <v>80.680000000000007</v>
       </c>
-      <c r="K2" s="57">
+      <c r="K2" s="50">
         <v>58.45</v>
       </c>
-      <c r="L2" s="57">
+      <c r="L2" s="50">
         <v>70.569999999999993</v>
       </c>
-      <c r="M2" s="57">
+      <c r="M2" s="50">
         <v>88.72</v>
       </c>
-      <c r="N2" s="57">
+      <c r="N2" s="50">
         <v>80.650000000000006</v>
       </c>
-      <c r="O2" s="57">
+      <c r="O2" s="50">
         <v>145.16999999999999</v>
       </c>
-      <c r="P2" s="57">
+      <c r="P2" s="50">
         <v>68.56</v>
       </c>
-      <c r="Q2" s="57">
+      <c r="Q2" s="50">
         <v>84.72</v>
       </c>
-      <c r="R2" s="57">
+      <c r="R2" s="50">
         <v>197.6</v>
       </c>
-      <c r="S2" s="57">
+      <c r="S2" s="50">
         <v>78.64</v>
       </c>
-      <c r="T2" s="57">
+      <c r="T2" s="50">
         <v>24.2</v>
       </c>
-      <c r="U2" s="57">
+      <c r="U2" s="50">
         <v>96.82</v>
       </c>
-      <c r="V2" s="57">
+      <c r="V2" s="50">
         <v>34.28</v>
       </c>
-      <c r="W2" s="57">
+      <c r="W2" s="50">
         <v>62.48</v>
       </c>
-      <c r="X2" s="57">
+      <c r="X2" s="50">
         <v>24.21</v>
       </c>
-      <c r="Y2" s="57">
+      <c r="Y2" s="50">
         <v>133.06</v>
       </c>
-      <c r="Z2" s="57">
+      <c r="Z2" s="50">
         <v>86.69</v>
       </c>
-      <c r="AA2" s="57">
+      <c r="AA2" s="50">
         <v>36.299999999999997</v>
       </c>
-      <c r="AB2" s="57">
+      <c r="AB2" s="50">
         <v>102.88</v>
       </c>
       <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+      <c r="A3" s="32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="27">
         <f>AVERAGE(H3:AB3)</f>
         <v>98.581111111111127</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="36">
+      <c r="F3" s="30"/>
+      <c r="G3" s="29">
         <f>AVEDEV(H3:AB3)</f>
         <v>31.121234567901233</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="50">
         <v>125.03</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="50">
         <v>133.11000000000001</v>
       </c>
-      <c r="J3" s="57">
+      <c r="J3" s="50">
         <v>70.599999999999994</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="50">
         <v>60.47</v>
       </c>
-      <c r="L3" s="57">
+      <c r="L3" s="50">
         <v>74.59</v>
       </c>
-      <c r="M3" s="57">
+      <c r="M3" s="50">
         <v>118.95</v>
       </c>
-      <c r="N3" s="57">
+      <c r="N3" s="50">
         <v>157.28</v>
       </c>
-      <c r="O3" s="57">
+      <c r="O3" s="50">
         <v>70.56</v>
       </c>
-      <c r="P3" s="57">
+      <c r="P3" s="50">
         <v>76.64</v>
       </c>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="69"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="62"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+      <c r="A4" s="32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="37" t="s">
+      <c r="C4" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="37">
         <f t="shared" ref="E4:E17" si="1">AVERAGE(H4:AB4)</f>
         <v>88.580714285714294</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="48">
+      <c r="F4" s="30"/>
+      <c r="G4" s="41">
         <f t="shared" ref="G4:G17" si="2">AVEDEV(H4:AB4)</f>
         <v>23.406734693877556</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="50">
         <v>127.04</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="50">
         <v>120.98</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="50">
         <v>74.599999999999994</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="50">
         <v>80.66</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="50">
         <v>131.04</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="50">
         <v>84.71</v>
       </c>
-      <c r="N4" s="57">
+      <c r="N4" s="50">
         <v>68.58</v>
       </c>
-      <c r="O4" s="57">
+      <c r="O4" s="50">
         <v>139.11000000000001</v>
       </c>
-      <c r="P4" s="57">
+      <c r="P4" s="50">
         <v>86.71</v>
       </c>
-      <c r="Q4" s="57">
+      <c r="Q4" s="50">
         <v>28.25</v>
       </c>
-      <c r="R4" s="57">
+      <c r="R4" s="50">
         <v>86.73</v>
       </c>
-      <c r="S4" s="57">
+      <c r="S4" s="50">
         <v>40.35</v>
       </c>
-      <c r="T4" s="57">
+      <c r="T4" s="50">
         <v>86.7</v>
       </c>
-      <c r="U4" s="57">
+      <c r="U4" s="50">
         <v>84.67</v>
       </c>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="69"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="62"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40">
+      <c r="A5" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="36">
         <f>AVERAGE(H5:AB5)</f>
         <v>85.134999999999991</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="50">
+      <c r="F5" s="31"/>
+      <c r="G5" s="43">
         <f>AVEDEV(H5:AB5)</f>
         <v>22.636111111111113</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="51">
         <v>139.13999999999999</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="52">
         <v>125.01</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="52">
         <v>117.01</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="52">
         <v>74.61</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="52">
         <v>86.71</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="52">
         <v>72.56</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="52">
         <v>62.47</v>
       </c>
-      <c r="O5" s="59">
+      <c r="O5" s="52">
         <v>86.72</v>
       </c>
-      <c r="P5" s="59">
+      <c r="P5" s="52">
         <v>76.64</v>
       </c>
-      <c r="Q5" s="59">
+      <c r="Q5" s="52">
         <v>145.15</v>
       </c>
-      <c r="R5" s="59">
+      <c r="R5" s="52">
         <v>94.77</v>
       </c>
-      <c r="S5" s="59">
+      <c r="S5" s="52">
         <v>86.72</v>
       </c>
-      <c r="T5" s="59">
+      <c r="T5" s="52">
         <v>32.25</v>
       </c>
-      <c r="U5" s="59">
+      <c r="U5" s="52">
         <v>72.599999999999994</v>
       </c>
-      <c r="V5" s="59">
+      <c r="V5" s="52">
         <v>88.71</v>
       </c>
-      <c r="W5" s="59">
+      <c r="W5" s="52">
         <v>74.56</v>
       </c>
-      <c r="X5" s="59">
+      <c r="X5" s="52">
         <v>24.2</v>
       </c>
-      <c r="Y5" s="59">
+      <c r="Y5" s="52">
         <v>72.599999999999994</v>
       </c>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="60"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="53"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
+      <c r="A6" s="32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="34">
+      <c r="C6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="27">
         <f t="shared" si="1"/>
         <v>22.875714285714285</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="29">
         <f>AVERAGE(E6:E9)</f>
         <v>28.089386087768446</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="29">
         <f t="shared" si="2"/>
         <v>4.6214965986394549</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="50">
         <v>18.170000000000002</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="50">
         <v>38.35</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="50">
         <v>24.23</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="50">
         <v>18.18</v>
       </c>
-      <c r="L6" s="57">
+      <c r="L6" s="50">
         <v>20.190000000000001</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="50">
         <v>18.170000000000002</v>
       </c>
-      <c r="N6" s="57">
+      <c r="N6" s="50">
         <v>20.18</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="50">
         <v>20.170000000000002</v>
       </c>
-      <c r="P6" s="57">
+      <c r="P6" s="50">
         <v>20.190000000000001</v>
       </c>
-      <c r="Q6" s="65">
+      <c r="Q6" s="58">
         <v>22.2</v>
       </c>
-      <c r="R6" s="65">
+      <c r="R6" s="58">
         <v>36.380000000000003</v>
       </c>
-      <c r="S6" s="65">
+      <c r="S6" s="58">
         <v>20.190000000000001</v>
       </c>
-      <c r="T6" s="65">
+      <c r="T6" s="58">
         <v>16.13</v>
       </c>
-      <c r="U6" s="65">
+      <c r="U6" s="58">
         <v>24.21</v>
       </c>
-      <c r="V6" s="65">
+      <c r="V6" s="58">
         <v>22.19</v>
       </c>
-      <c r="W6" s="65">
+      <c r="W6" s="58">
         <v>26.25</v>
       </c>
-      <c r="X6" s="65">
+      <c r="X6" s="58">
         <v>18.149999999999999</v>
       </c>
-      <c r="Y6" s="65">
+      <c r="Y6" s="58">
         <v>18.14</v>
       </c>
-      <c r="Z6" s="65">
+      <c r="Z6" s="58">
         <v>22.19</v>
       </c>
-      <c r="AA6" s="65">
+      <c r="AA6" s="58">
         <v>20.170000000000002</v>
       </c>
-      <c r="AB6" s="65">
+      <c r="AB6" s="58">
         <v>36.36</v>
       </c>
       <c r="AC6" s="5"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
+      <c r="A7" s="32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="37">
         <f t="shared" si="1"/>
         <v>30.268888888888892</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="48">
+      <c r="F7" s="30"/>
+      <c r="G7" s="41">
         <f t="shared" si="2"/>
         <v>10.767407407407408</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="50">
         <v>40.380000000000003</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="50">
         <v>34.32</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="50">
         <v>26.23</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="50">
         <v>20.170000000000002</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="50">
         <v>24.21</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="50">
         <v>20.170000000000002</v>
       </c>
-      <c r="N7" s="57">
+      <c r="N7" s="50">
         <v>64.56</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O7" s="50">
         <v>22.2</v>
       </c>
-      <c r="P7" s="57">
+      <c r="P7" s="50">
         <v>20.18</v>
       </c>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="69"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="62"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+      <c r="A8" s="32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="37">
         <f t="shared" si="1"/>
         <v>34.160000000000004</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="36">
+      <c r="F8" s="30"/>
+      <c r="G8" s="29">
         <f t="shared" si="2"/>
         <v>15.647142857142859</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="50">
         <v>28.25</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="50">
         <v>20.2</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="50">
         <v>22.21</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="50">
         <v>22.21</v>
       </c>
-      <c r="L8" s="57">
+      <c r="L8" s="50">
         <v>107.01</v>
       </c>
-      <c r="M8" s="57">
+      <c r="M8" s="50">
         <v>22.21</v>
       </c>
-      <c r="N8" s="57">
+      <c r="N8" s="50">
         <v>22.2</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="50">
         <v>44.37</v>
       </c>
-      <c r="P8" s="57">
+      <c r="P8" s="50">
         <v>34.31</v>
       </c>
-      <c r="Q8" s="57">
+      <c r="Q8" s="50">
         <v>20.16</v>
       </c>
-      <c r="R8" s="57">
+      <c r="R8" s="50">
         <v>30.26</v>
       </c>
-      <c r="S8" s="57">
+      <c r="S8" s="50">
         <v>20.170000000000002</v>
       </c>
-      <c r="T8" s="57">
+      <c r="T8" s="50">
         <v>60.48</v>
       </c>
-      <c r="U8" s="57">
+      <c r="U8" s="50">
         <v>24.2</v>
       </c>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="69"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="62"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40">
+      <c r="A9" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="38" t="s">
+      <c r="B9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="36">
         <f>AVERAGE(H9:AB9)</f>
         <v>25.05294117647059</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="47">
+      <c r="F9" s="31"/>
+      <c r="G9" s="40">
         <f>AVEDEV(H9:AB9)</f>
         <v>5.2552249134948088</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="51">
         <v>26.26</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="52">
         <v>26.24</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="52">
         <v>26.28</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="52">
         <v>36.340000000000003</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L9" s="52">
         <v>20.190000000000001</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M9" s="52">
         <v>20.190000000000001</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="52">
         <v>24.22</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="52">
         <v>20.190000000000001</v>
       </c>
-      <c r="P9" s="59">
+      <c r="P9" s="52">
         <v>26.24</v>
       </c>
-      <c r="Q9" s="59">
+      <c r="Q9" s="52">
         <v>52.45</v>
       </c>
-      <c r="R9" s="59">
+      <c r="R9" s="52">
         <v>24.23</v>
       </c>
-      <c r="S9" s="59">
+      <c r="S9" s="52">
         <v>26.23</v>
       </c>
-      <c r="T9" s="59">
+      <c r="T9" s="52">
         <v>18.16</v>
       </c>
-      <c r="U9" s="59">
+      <c r="U9" s="52">
         <v>20.190000000000001</v>
       </c>
-      <c r="V9" s="59">
+      <c r="V9" s="52">
         <v>22.19</v>
       </c>
-      <c r="W9" s="59">
+      <c r="W9" s="52">
         <v>18.149999999999999</v>
       </c>
-      <c r="X9" s="59">
+      <c r="X9" s="52">
         <v>18.149999999999999</v>
       </c>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="78"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="71"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
+      <c r="A10" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="34">
+      <c r="C10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="27">
         <f t="shared" si="1"/>
         <v>24.126190476190477</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="29">
         <f>AVERAGE(E10:E13)</f>
         <v>22.63626984126984</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="29">
         <f t="shared" si="2"/>
         <v>4.1175510204081629</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="50">
         <v>34.33</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="50">
         <v>20.23</v>
       </c>
-      <c r="J10" s="57">
+      <c r="J10" s="50">
         <v>20.18</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="50">
         <v>24.21</v>
       </c>
-      <c r="L10" s="57">
+      <c r="L10" s="50">
         <v>22.22</v>
       </c>
-      <c r="M10" s="57">
+      <c r="M10" s="50">
         <v>18.16</v>
       </c>
-      <c r="N10" s="57">
+      <c r="N10" s="50">
         <v>20.190000000000001</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="50">
         <v>22.2</v>
       </c>
-      <c r="P10" s="57">
+      <c r="P10" s="50">
         <v>40.36</v>
       </c>
-      <c r="Q10" s="65">
+      <c r="Q10" s="58">
         <v>30.3</v>
       </c>
-      <c r="R10" s="65">
+      <c r="R10" s="58">
         <v>20.23</v>
       </c>
-      <c r="S10" s="65">
+      <c r="S10" s="58">
         <v>28.26</v>
       </c>
-      <c r="T10" s="65">
+      <c r="T10" s="58">
         <v>20.16</v>
       </c>
-      <c r="U10" s="65">
+      <c r="U10" s="58">
         <v>30.26</v>
       </c>
-      <c r="V10" s="65">
+      <c r="V10" s="58">
         <v>22.18</v>
       </c>
-      <c r="W10" s="65">
+      <c r="W10" s="58">
         <v>24.21</v>
       </c>
-      <c r="X10" s="65">
+      <c r="X10" s="58">
         <v>20.170000000000002</v>
       </c>
-      <c r="Y10" s="65">
+      <c r="Y10" s="58">
         <v>24.2</v>
       </c>
-      <c r="Z10" s="65">
+      <c r="Z10" s="58">
         <v>24.24</v>
       </c>
-      <c r="AA10" s="65">
+      <c r="AA10" s="58">
         <v>22.19</v>
       </c>
-      <c r="AB10" s="65">
+      <c r="AB10" s="58">
         <v>18.170000000000002</v>
       </c>
       <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+      <c r="A11" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="37" t="s">
+      <c r="C11" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="37">
         <f t="shared" si="1"/>
         <v>19.068888888888885</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="48">
+      <c r="F11" s="30"/>
+      <c r="G11" s="41">
         <f t="shared" si="2"/>
         <v>1.4925925925925938</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="50">
         <v>20.2</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="50">
         <v>20.18</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="50">
         <v>16.149999999999999</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="50">
         <v>20.2</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="50">
         <v>16.14</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="50">
         <v>20.18</v>
       </c>
-      <c r="N11" s="57">
+      <c r="N11" s="50">
         <v>18.2</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="50">
         <v>20.18</v>
       </c>
-      <c r="P11" s="57">
+      <c r="P11" s="50">
         <v>20.190000000000001</v>
       </c>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="69"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="62"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
+      <c r="A12" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="37">
         <f t="shared" si="1"/>
         <v>20.04</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="48">
+      <c r="F12" s="30"/>
+      <c r="G12" s="41">
         <f t="shared" si="2"/>
         <v>3.298571428571428</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="50">
         <v>24.23</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="50">
         <v>36.32</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="50">
         <v>20.2</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="50">
         <v>16.16</v>
       </c>
-      <c r="L12" s="57">
+      <c r="L12" s="50">
         <v>14.15</v>
       </c>
-      <c r="M12" s="57">
+      <c r="M12" s="50">
         <v>18.149999999999999</v>
       </c>
-      <c r="N12" s="57">
+      <c r="N12" s="50">
         <v>20.190000000000001</v>
       </c>
-      <c r="O12" s="57">
+      <c r="O12" s="50">
         <v>22.21</v>
       </c>
-      <c r="P12" s="57">
+      <c r="P12" s="50">
         <v>20.18</v>
       </c>
-      <c r="Q12" s="57">
+      <c r="Q12" s="50">
         <v>18.14</v>
       </c>
-      <c r="R12" s="57">
+      <c r="R12" s="50">
         <v>18.16</v>
       </c>
-      <c r="S12" s="57">
+      <c r="S12" s="50">
         <v>18.16</v>
       </c>
-      <c r="T12" s="57">
+      <c r="T12" s="50">
         <v>16.14</v>
       </c>
-      <c r="U12" s="57">
+      <c r="U12" s="50">
         <v>18.170000000000002</v>
       </c>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="69"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="62"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40">
+      <c r="A13" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="38" t="s">
+      <c r="B13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="38">
         <f t="shared" si="1"/>
         <v>27.31</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="47">
+      <c r="F13" s="31"/>
+      <c r="G13" s="40">
         <f t="shared" si="2"/>
         <v>4.3305882352941172</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="51">
         <v>32.32</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="52">
         <v>32.31</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="52">
         <v>20.23</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="52">
         <v>22.21</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="52">
         <v>26.23</v>
       </c>
-      <c r="M13" s="59">
+      <c r="M13" s="52">
         <v>40.369999999999997</v>
       </c>
-      <c r="N13" s="59">
+      <c r="N13" s="52">
         <v>28.25</v>
       </c>
-      <c r="O13" s="59">
+      <c r="O13" s="52">
         <v>32.28</v>
       </c>
-      <c r="P13" s="59">
+      <c r="P13" s="52">
         <v>28.27</v>
       </c>
-      <c r="Q13" s="59">
+      <c r="Q13" s="52">
         <v>26.27</v>
       </c>
-      <c r="R13" s="59">
+      <c r="R13" s="52">
         <v>20.170000000000002</v>
       </c>
-      <c r="S13" s="59">
+      <c r="S13" s="52">
         <v>32.270000000000003</v>
       </c>
-      <c r="T13" s="59">
+      <c r="T13" s="52">
         <v>22.18</v>
       </c>
-      <c r="U13" s="59">
+      <c r="U13" s="52">
         <v>28.24</v>
       </c>
-      <c r="V13" s="59">
+      <c r="V13" s="52">
         <v>22.2</v>
       </c>
-      <c r="W13" s="59">
+      <c r="W13" s="52">
         <v>22.18</v>
       </c>
-      <c r="X13" s="59">
+      <c r="X13" s="52">
         <v>28.29</v>
       </c>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="77"/>
-      <c r="AB13" s="78"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="71"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+      <c r="A14" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="46">
+      <c r="C14" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="39">
         <f t="shared" si="1"/>
         <v>20.769523809523811</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="29">
         <f>AVERAGE(E14:E17)</f>
         <v>21.928796236443297</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="42">
         <f t="shared" si="2"/>
         <v>3.5518367346938766</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="50">
         <v>28.31</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="50">
         <v>12.12</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="50">
         <v>26.28</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="50">
         <v>22.21</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="50">
         <v>24.23</v>
       </c>
-      <c r="M14" s="57">
+      <c r="M14" s="50">
         <v>20.190000000000001</v>
       </c>
-      <c r="N14" s="57">
+      <c r="N14" s="50">
         <v>22.22</v>
       </c>
-      <c r="O14" s="57">
+      <c r="O14" s="50">
         <v>20.190000000000001</v>
       </c>
-      <c r="P14" s="57">
+      <c r="P14" s="50">
         <v>24.23</v>
       </c>
-      <c r="Q14" s="65">
+      <c r="Q14" s="58">
         <v>20.18</v>
       </c>
-      <c r="R14" s="65">
+      <c r="R14" s="58">
         <v>10.1</v>
       </c>
-      <c r="S14" s="65">
+      <c r="S14" s="58">
         <v>20.18</v>
       </c>
-      <c r="T14" s="65">
+      <c r="T14" s="58">
         <v>18.16</v>
       </c>
-      <c r="U14" s="65">
+      <c r="U14" s="58">
         <v>26.26</v>
       </c>
-      <c r="V14" s="65">
+      <c r="V14" s="58">
         <v>22.2</v>
       </c>
-      <c r="W14" s="65">
+      <c r="W14" s="58">
         <v>28.28</v>
       </c>
-      <c r="X14" s="65">
+      <c r="X14" s="58">
         <v>20.18</v>
       </c>
-      <c r="Y14" s="65">
+      <c r="Y14" s="58">
         <v>20.18</v>
       </c>
-      <c r="Z14" s="65">
+      <c r="Z14" s="58">
         <v>20.2</v>
       </c>
-      <c r="AA14" s="65">
+      <c r="AA14" s="58">
         <v>20.190000000000001</v>
       </c>
-      <c r="AB14" s="80">
+      <c r="AB14" s="73">
         <v>10.07</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+      <c r="A15" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="27">
         <f>AVERAGE(H15:AB15)</f>
         <v>21.312222222222218</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="36">
+      <c r="F15" s="30"/>
+      <c r="G15" s="29">
         <f>AVEDEV(H15:AB15)</f>
         <v>3.4980246913580233</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="50">
         <v>32.33</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="50">
         <v>22.22</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="50">
         <v>22.22</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="50">
         <v>18.14</v>
       </c>
-      <c r="L15" s="57">
+      <c r="L15" s="50">
         <v>20.18</v>
       </c>
-      <c r="M15" s="57">
+      <c r="M15" s="50">
         <v>20.170000000000002</v>
       </c>
-      <c r="N15" s="57">
+      <c r="N15" s="50">
         <v>14.16</v>
       </c>
-      <c r="O15" s="57">
+      <c r="O15" s="50">
         <v>18.170000000000002</v>
       </c>
-      <c r="P15" s="57">
+      <c r="P15" s="50">
         <v>24.22</v>
       </c>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="69"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="62"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="A16" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="37" t="s">
+      <c r="C16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="37">
         <f t="shared" si="1"/>
         <v>23.294615384615383</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="48">
+      <c r="F16" s="30"/>
+      <c r="G16" s="41">
         <f t="shared" si="2"/>
         <v>4.1088757396449713</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="50">
         <v>34.340000000000003</v>
       </c>
-      <c r="I16" s="57">
+      <c r="I16" s="50">
         <v>26.25</v>
       </c>
-      <c r="J16" s="57">
+      <c r="J16" s="50">
         <v>26.24</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="50">
         <v>24.24</v>
       </c>
-      <c r="L16" s="57">
+      <c r="L16" s="50">
         <v>16.16</v>
       </c>
-      <c r="M16" s="57">
+      <c r="M16" s="50">
         <v>26.23</v>
       </c>
-      <c r="N16" s="57">
+      <c r="N16" s="50">
         <v>20.18</v>
       </c>
-      <c r="O16" s="57">
+      <c r="O16" s="50">
         <v>18.170000000000002</v>
       </c>
-      <c r="P16" s="57">
+      <c r="P16" s="50">
         <v>24.21</v>
       </c>
-      <c r="Q16" s="57">
+      <c r="Q16" s="50">
         <v>28.26</v>
       </c>
-      <c r="R16" s="57">
+      <c r="R16" s="50">
         <v>22.22</v>
       </c>
-      <c r="S16" s="57">
+      <c r="S16" s="50">
         <v>18.149999999999999</v>
       </c>
-      <c r="T16" s="57">
+      <c r="T16" s="50">
         <v>18.18</v>
       </c>
-      <c r="U16" s="81"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="60"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="53"/>
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
+      <c r="A17" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="38" t="s">
+      <c r="B17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="36">
         <f t="shared" si="1"/>
         <v>22.338823529411769</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="47">
+      <c r="F17" s="31"/>
+      <c r="G17" s="40">
         <f t="shared" si="2"/>
         <v>3.7208304498269906</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="51">
         <v>24.28</v>
       </c>
-      <c r="I17" s="59">
+      <c r="I17" s="52">
         <v>24.24</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="52">
         <v>18.190000000000001</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="52">
         <v>20.190000000000001</v>
       </c>
-      <c r="L17" s="59">
+      <c r="L17" s="52">
         <v>18.23</v>
       </c>
-      <c r="M17" s="59">
+      <c r="M17" s="52">
         <v>16.16</v>
       </c>
-      <c r="N17" s="59">
+      <c r="N17" s="52">
         <v>20.18</v>
       </c>
-      <c r="O17" s="59">
+      <c r="O17" s="52">
         <v>20.22</v>
       </c>
-      <c r="P17" s="59">
+      <c r="P17" s="52">
         <v>28.28</v>
       </c>
-      <c r="Q17" s="59">
+      <c r="Q17" s="52">
         <v>18.190000000000001</v>
       </c>
-      <c r="R17" s="59">
+      <c r="R17" s="52">
         <v>22.19</v>
       </c>
-      <c r="S17" s="59">
+      <c r="S17" s="52">
         <v>26.26</v>
       </c>
-      <c r="T17" s="59">
+      <c r="T17" s="52">
         <v>20.170000000000002</v>
       </c>
-      <c r="U17" s="59">
+      <c r="U17" s="52">
         <v>18.170000000000002</v>
       </c>
-      <c r="V17" s="59">
+      <c r="V17" s="52">
         <v>24.24</v>
       </c>
-      <c r="W17" s="59">
+      <c r="W17" s="52">
         <v>22.21</v>
       </c>
-      <c r="X17" s="59">
+      <c r="X17" s="52">
         <v>38.36</v>
       </c>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="77"/>
-      <c r="AB17" s="78"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="71"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
@@ -10433,45 +10438,45 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B19" s="72"/>
-      <c r="C19" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B20" s="70"/>
-      <c r="C20" s="71" t="s">
-        <v>27</v>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
       <c r="AB21" s="17"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H18">
@@ -10491,7 +10496,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10510,22 +10515,22 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="32" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="33"/>
+      <c r="H3" s="93"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="77" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="11">
@@ -10537,7 +10542,7 @@
       <c r="E4" s="11">
         <v>3</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="44">
         <v>4</v>
       </c>
       <c r="G4" t="s">
@@ -10548,7 +10553,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8">
@@ -10577,7 +10582,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="8">
@@ -10606,7 +10611,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="8">
@@ -10635,7 +10640,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="8">
@@ -10664,7 +10669,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="76" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="14">
@@ -14358,8 +14363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEB0D6-551D-412D-8C6E-4034042A9E76}">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14371,37 +14376,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="52" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="55"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="48"/>
       <c r="V1" s="15" t="s">
         <v>10</v>
       </c>
@@ -14419,27 +14424,27 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="64">
+      <c r="A2" s="57">
         <v>1</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="79" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="34">
+      <c r="D2" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="27">
         <f>AVERAGE(H2:Q2)</f>
         <v>495.851</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="29">
         <f>AVERAGE(E2:E9)</f>
         <v>524.52528125000003</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="29">
         <f>AVEDEV(H2:Q2)</f>
         <v>219.04920000000001</v>
       </c>
@@ -14470,7 +14475,7 @@
       <c r="P2">
         <v>700.89</v>
       </c>
-      <c r="Q2" s="64">
+      <c r="Q2" s="57">
         <v>866.14</v>
       </c>
       <c r="V2" s="17">
@@ -14487,30 +14492,30 @@
       <c r="Y2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="90">
+      <c r="Z2" s="81">
         <f>E2</f>
         <v>495.851</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="27">
         <f t="shared" ref="E3:E32" si="0">AVERAGE(H3:Q3)</f>
         <v>461.21000000000004</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="36">
+      <c r="F3" s="30"/>
+      <c r="G3" s="29">
         <f t="shared" ref="G3:G33" si="1">AVEDEV(H3:Q3)</f>
         <v>118.53200000000001</v>
       </c>
@@ -14529,11 +14534,11 @@
       <c r="L3">
         <v>708.65</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="87"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="78"/>
       <c r="V3" s="17">
         <v>1</v>
       </c>
@@ -14548,30 +14553,30 @@
       <c r="Y3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="90">
+      <c r="Z3" s="81">
         <f t="shared" ref="Z3:Z33" si="4">E3</f>
         <v>461.21000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="27">
         <f t="shared" si="0"/>
         <v>477.98624999999998</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="36">
+      <c r="F4" s="30"/>
+      <c r="G4" s="29">
         <f t="shared" si="1"/>
         <v>174.76125000000002</v>
       </c>
@@ -14599,8 +14604,8 @@
       <c r="O4">
         <v>670.69</v>
       </c>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="69"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="62"/>
       <c r="V4" s="17">
         <v>1</v>
       </c>
@@ -14615,30 +14620,30 @@
       <c r="Y4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Z4" s="90">
+      <c r="Z4" s="81">
         <f t="shared" si="4"/>
         <v>477.98624999999998</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
+      <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="27">
         <f t="shared" si="0"/>
         <v>478.11249999999995</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36">
+      <c r="F5" s="30"/>
+      <c r="G5" s="29">
         <f>AVEDEV(H5:Q5)</f>
         <v>84.641250000000014</v>
       </c>
@@ -14654,12 +14659,12 @@
       <c r="K5">
         <v>587.05999999999995</v>
       </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="69"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="62"/>
       <c r="V5" s="17">
         <v>1</v>
       </c>
@@ -14674,30 +14679,30 @@
       <c r="Y5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="Z5" s="90">
+      <c r="Z5" s="81">
         <f t="shared" si="4"/>
         <v>478.11249999999995</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+      <c r="A6" s="30">
         <v>1</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
         <v>624.20000000000005</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="36">
+      <c r="F6" s="30"/>
+      <c r="G6" s="29">
         <f t="shared" si="1"/>
         <v>97.420000000000016</v>
       </c>
@@ -14707,14 +14712,14 @@
       <c r="I6">
         <v>721.62</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="67"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="60"/>
       <c r="V6" s="17">
         <v>1</v>
       </c>
@@ -14729,30 +14734,30 @@
       <c r="Y6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Z6" s="90">
+      <c r="Z6" s="81">
         <f t="shared" si="4"/>
         <v>624.20000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
+      <c r="A7" s="30">
         <v>1</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="27">
         <f t="shared" si="0"/>
         <v>656.21249999999998</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="36">
+      <c r="F7" s="30"/>
+      <c r="G7" s="29">
         <f t="shared" si="1"/>
         <v>115.76625</v>
       </c>
@@ -14768,12 +14773,12 @@
       <c r="K7">
         <v>709.37</v>
       </c>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="67"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="60"/>
       <c r="V7" s="17">
         <v>1</v>
       </c>
@@ -14788,30 +14793,30 @@
       <c r="Y7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Z7" s="90">
+      <c r="Z7" s="81">
         <f t="shared" si="4"/>
         <v>656.21249999999998</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+      <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="27">
         <f t="shared" si="0"/>
         <v>439.06</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="36">
+      <c r="F8" s="30"/>
+      <c r="G8" s="29">
         <f t="shared" si="1"/>
         <v>197.09714285714287</v>
       </c>
@@ -14836,9 +14841,9 @@
       <c r="N8">
         <v>668.69</v>
       </c>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="67"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="60"/>
       <c r="V8" s="17">
         <v>1</v>
       </c>
@@ -14853,53 +14858,53 @@
       <c r="Y8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="90">
+      <c r="Z8" s="81">
         <f t="shared" si="4"/>
         <v>439.06</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
+      <c r="A9" s="31">
         <v>1</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="41" t="s">
+      <c r="B9" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="38">
         <f t="shared" si="0"/>
         <v>563.56999999999994</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="50">
+      <c r="F9" s="31"/>
+      <c r="G9" s="43">
         <f t="shared" si="1"/>
         <v>163.93200000000002</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="49">
         <v>258.07</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="28">
         <v>459.24</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="28">
         <v>733.01</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="28">
         <v>678.49</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="28">
         <v>689.04</v>
       </c>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="69"/>
       <c r="V9" s="17">
         <v>1</v>
       </c>
@@ -14914,33 +14919,33 @@
       <c r="Y9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="90">
+      <c r="Z9" s="81">
         <f t="shared" si="4"/>
         <v>563.56999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
-        <v>2</v>
-      </c>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="30">
+        <v>2</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="34">
+      <c r="D10" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="27">
         <f t="shared" si="0"/>
         <v>47.622</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="29">
         <f>AVERAGE(E10:E17)</f>
         <v>60.902857142857144</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="29">
         <f t="shared" si="1"/>
         <v>6.9280000000000017</v>
       </c>
@@ -14988,30 +14993,30 @@
       <c r="Y10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="90">
+      <c r="Z10" s="81">
         <f t="shared" si="4"/>
         <v>47.622</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
-        <v>2</v>
-      </c>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="30">
+        <v>2</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="27">
         <f t="shared" si="0"/>
         <v>56.508000000000003</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="36">
+      <c r="F11" s="30"/>
+      <c r="G11" s="29">
         <f t="shared" si="1"/>
         <v>7.6455999999999991</v>
       </c>
@@ -15030,11 +15035,11 @@
       <c r="L11">
         <v>54.86</v>
       </c>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="87"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="78"/>
       <c r="V11" s="17">
         <v>2</v>
       </c>
@@ -15049,30 +15054,30 @@
       <c r="Y11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="90">
+      <c r="Z11" s="81">
         <f t="shared" si="4"/>
         <v>56.508000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
-        <v>2</v>
-      </c>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="30">
+        <v>2</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="27">
         <f t="shared" si="0"/>
         <v>67.127499999999998</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="36">
+      <c r="F12" s="30"/>
+      <c r="G12" s="29">
         <f t="shared" si="1"/>
         <v>23.358749999999997</v>
       </c>
@@ -15100,8 +15105,8 @@
       <c r="O12">
         <v>61.09</v>
       </c>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="69"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="62"/>
       <c r="V12" s="17">
         <v>2</v>
       </c>
@@ -15116,30 +15121,30 @@
       <c r="Y12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Z12" s="90">
+      <c r="Z12" s="81">
         <f t="shared" si="4"/>
         <v>67.127499999999998</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
-        <v>2</v>
-      </c>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="30">
+        <v>2</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="27">
         <f t="shared" si="0"/>
         <v>53.417499999999997</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="36">
+      <c r="F13" s="30"/>
+      <c r="G13" s="29">
         <f t="shared" si="1"/>
         <v>13.981249999999998</v>
       </c>
@@ -15155,12 +15160,12 @@
       <c r="K13">
         <v>81.38</v>
       </c>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="69"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="62"/>
       <c r="V13" s="17">
         <v>2</v>
       </c>
@@ -15175,30 +15180,30 @@
       <c r="Y13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="Z13" s="90">
+      <c r="Z13" s="81">
         <f t="shared" si="4"/>
         <v>53.417499999999997</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="37">
-        <v>2</v>
-      </c>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="30">
+        <v>2</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="27">
         <f t="shared" si="0"/>
         <v>52.94</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="36">
+      <c r="F14" s="30"/>
+      <c r="G14" s="29">
         <f t="shared" si="1"/>
         <v>10.199999999999999</v>
       </c>
@@ -15208,14 +15213,14 @@
       <c r="I14">
         <v>42.74</v>
       </c>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="67"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="60"/>
       <c r="V14" s="17">
         <v>2</v>
       </c>
@@ -15230,30 +15235,30 @@
       <c r="Y14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="90">
+      <c r="Z14" s="81">
         <f t="shared" si="4"/>
         <v>52.94</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
-        <v>2</v>
-      </c>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="30">
+        <v>2</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="27">
         <f t="shared" si="0"/>
         <v>61.024999999999999</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="36">
+      <c r="F15" s="30"/>
+      <c r="G15" s="29">
         <f t="shared" si="1"/>
         <v>15.259999999999998</v>
       </c>
@@ -15269,12 +15274,12 @@
       <c r="K15">
         <v>85.5</v>
       </c>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="67"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="60"/>
       <c r="V15" s="17">
         <v>2</v>
       </c>
@@ -15289,30 +15294,30 @@
       <c r="Y15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Z15" s="90">
+      <c r="Z15" s="81">
         <f t="shared" si="4"/>
         <v>61.024999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
-        <v>2</v>
-      </c>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="30">
+        <v>2</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="27">
         <f t="shared" si="0"/>
         <v>68.862857142857138</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="36">
+      <c r="F16" s="30"/>
+      <c r="G16" s="29">
         <f t="shared" si="1"/>
         <v>25.240408163265304</v>
       </c>
@@ -15337,9 +15342,9 @@
       <c r="N16">
         <v>89.57</v>
       </c>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="67"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="60"/>
       <c r="V16" s="17">
         <v>2</v>
       </c>
@@ -15354,53 +15359,53 @@
       <c r="Y16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Z16" s="90">
+      <c r="Z16" s="81">
         <f t="shared" si="4"/>
         <v>68.862857142857138</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38">
-        <v>2</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="42" t="s">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="38">
         <f t="shared" si="0"/>
         <v>79.72</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="47">
+      <c r="F17" s="31"/>
+      <c r="G17" s="40">
         <f t="shared" si="1"/>
         <v>23.244000000000007</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="28">
         <v>85.43</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="28">
         <v>44.73</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="28">
         <v>132.12</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="28">
         <v>71.19</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="28">
         <v>65.13</v>
       </c>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="76"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="69"/>
       <c r="V17" s="17">
         <v>2</v>
       </c>
@@ -15415,33 +15420,33 @@
       <c r="Y17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Z17" s="90">
+      <c r="Z17" s="81">
         <f t="shared" si="4"/>
         <v>79.72</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+      <c r="A18" s="30">
         <v>3</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="34">
+      <c r="D18" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="27">
         <f t="shared" si="0"/>
         <v>49.902999999999999</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="29">
         <f>AVERAGE(E18:E25)</f>
         <v>63.40169642857142</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="29">
         <f t="shared" si="1"/>
         <v>11.397600000000001</v>
       </c>
@@ -15489,30 +15494,30 @@
       <c r="Y18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Z18" s="90">
+      <c r="Z18" s="81">
         <f t="shared" si="4"/>
         <v>49.902999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
+      <c r="A19" s="30">
         <v>3</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="27">
         <f t="shared" si="0"/>
         <v>89.58</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="36">
+      <c r="F19" s="30"/>
+      <c r="G19" s="29">
         <f t="shared" si="1"/>
         <v>43.244</v>
       </c>
@@ -15531,11 +15536,11 @@
       <c r="L19">
         <v>77.239999999999995</v>
       </c>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="87"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="78"/>
       <c r="V19" s="17">
         <v>3</v>
       </c>
@@ -15550,30 +15555,30 @@
       <c r="Y19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Z19" s="90">
+      <c r="Z19" s="81">
         <f t="shared" si="4"/>
         <v>89.58</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
+      <c r="A20" s="30">
         <v>3</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="27">
         <f t="shared" si="0"/>
         <v>66.132500000000007</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="36">
+      <c r="F20" s="30"/>
+      <c r="G20" s="29">
         <f t="shared" si="1"/>
         <v>11.684999999999999</v>
       </c>
@@ -15601,8 +15606,8 @@
       <c r="O20">
         <v>97.72</v>
       </c>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="69"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="62"/>
       <c r="V20" s="17">
         <v>3</v>
       </c>
@@ -15617,30 +15622,30 @@
       <c r="Y20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Z20" s="90">
+      <c r="Z20" s="81">
         <f t="shared" si="4"/>
         <v>66.132500000000007</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="37">
+      <c r="A21" s="30">
         <v>3</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="27">
         <f t="shared" si="0"/>
         <v>64.707499999999996</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="36">
+      <c r="F21" s="30"/>
+      <c r="G21" s="29">
         <f t="shared" si="1"/>
         <v>3.853749999999998</v>
       </c>
@@ -15656,12 +15661,12 @@
       <c r="K21">
         <v>71.349999999999994</v>
       </c>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="69"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="62"/>
       <c r="V21" s="17">
         <v>3</v>
       </c>
@@ -15676,30 +15681,30 @@
       <c r="Y21" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="Z21" s="90">
+      <c r="Z21" s="81">
         <f t="shared" si="4"/>
         <v>64.707499999999996</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="37">
+      <c r="A22" s="30">
         <v>3</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="27">
         <f t="shared" si="0"/>
         <v>64.155000000000001</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="36">
+      <c r="F22" s="30"/>
+      <c r="G22" s="29">
         <f t="shared" si="1"/>
         <v>0.98499999999999943</v>
       </c>
@@ -15709,14 +15714,14 @@
       <c r="I22">
         <v>65.14</v>
       </c>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="67"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="60"/>
       <c r="V22" s="17">
         <v>3</v>
       </c>
@@ -15731,30 +15736,30 @@
       <c r="Y22" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Z22" s="90">
+      <c r="Z22" s="81">
         <f t="shared" si="4"/>
         <v>64.155000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="37">
+      <c r="A23" s="30">
         <v>3</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="27">
         <f t="shared" si="0"/>
         <v>60.534999999999997</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="36">
+      <c r="F23" s="30"/>
+      <c r="G23" s="29">
         <f t="shared" si="1"/>
         <v>10.705000000000002</v>
       </c>
@@ -15770,12 +15775,12 @@
       <c r="K23">
         <v>65.14</v>
       </c>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="67"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="60"/>
       <c r="V23" s="17">
         <v>3</v>
       </c>
@@ -15790,30 +15795,30 @@
       <c r="Y23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Z23" s="90">
+      <c r="Z23" s="81">
         <f t="shared" si="4"/>
         <v>60.534999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
+      <c r="A24" s="30">
         <v>3</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="27">
         <f t="shared" si="0"/>
         <v>57.258571428571422</v>
       </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="36">
+      <c r="F24" s="30"/>
+      <c r="G24" s="29">
         <f t="shared" si="1"/>
         <v>7.230204081632654</v>
       </c>
@@ -15838,9 +15843,9 @@
       <c r="N24">
         <v>63.11</v>
       </c>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="67"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="60"/>
       <c r="V24" s="17">
         <v>3</v>
       </c>
@@ -15855,53 +15860,53 @@
       <c r="Y24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Z24" s="90">
+      <c r="Z24" s="81">
         <f t="shared" si="4"/>
         <v>57.258571428571422</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38">
+      <c r="A25" s="31">
         <v>3</v>
       </c>
-      <c r="B25" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="42" t="s">
+      <c r="B25" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="38">
         <f t="shared" si="0"/>
         <v>54.942000000000007</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="50">
+      <c r="F25" s="31"/>
+      <c r="G25" s="43">
         <f t="shared" si="1"/>
         <v>8.1504000000000012</v>
       </c>
-      <c r="H25" s="56">
+      <c r="H25" s="49">
         <v>40.68</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="28">
         <v>59.01</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="28">
         <v>50.9</v>
       </c>
-      <c r="K25" s="35">
+      <c r="K25" s="28">
         <v>52.87</v>
       </c>
-      <c r="L25" s="35">
+      <c r="L25" s="28">
         <v>71.25</v>
       </c>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="76"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="69"/>
       <c r="V25" s="17">
         <v>3</v>
       </c>
@@ -15916,33 +15921,33 @@
       <c r="Y25" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Z25" s="90">
+      <c r="Z25" s="81">
         <f t="shared" si="4"/>
         <v>54.942000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
+      <c r="A26" s="30">
         <v>4</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="34">
+      <c r="D26" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="27">
         <f t="shared" si="0"/>
         <v>41.159000000000006</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="29">
         <f>AVERAGE(E26:E33)</f>
         <v>53.747187500000003</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="29">
         <f t="shared" si="1"/>
         <v>11.550600000000001</v>
       </c>
@@ -15990,30 +15995,30 @@
       <c r="Y26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Z26" s="90">
+      <c r="Z26" s="81">
         <f t="shared" si="4"/>
         <v>41.159000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
+      <c r="A27" s="30">
         <v>4</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="27">
         <f t="shared" si="0"/>
         <v>42.384</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="36">
+      <c r="F27" s="30"/>
+      <c r="G27" s="29">
         <f t="shared" si="1"/>
         <v>9.2208000000000006</v>
       </c>
@@ -16032,11 +16037,11 @@
       <c r="L27">
         <v>46.79</v>
       </c>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="87"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="78"/>
       <c r="V27" s="17">
         <v>4</v>
       </c>
@@ -16051,30 +16056,30 @@
       <c r="Y27" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Z27" s="90">
+      <c r="Z27" s="81">
         <f t="shared" si="4"/>
         <v>42.384</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="37">
+      <c r="A28" s="30">
         <v>4</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="27">
         <f t="shared" si="0"/>
         <v>61.102499999999992</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="36">
+      <c r="F28" s="30"/>
+      <c r="G28" s="29">
         <f t="shared" si="1"/>
         <v>20.375</v>
       </c>
@@ -16102,8 +16107,8 @@
       <c r="O28">
         <v>89.58</v>
       </c>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="69"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="62"/>
       <c r="V28" s="17">
         <v>4</v>
       </c>
@@ -16118,30 +16123,30 @@
       <c r="Y28" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Z28" s="90">
+      <c r="Z28" s="81">
         <f t="shared" si="4"/>
         <v>61.102499999999992</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
+      <c r="A29" s="30">
         <v>4</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="27">
         <f>AVERAGE(H29:Q29)</f>
         <v>49.947499999999998</v>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="36">
+      <c r="F29" s="30"/>
+      <c r="G29" s="29">
         <f t="shared" si="1"/>
         <v>18.3125</v>
       </c>
@@ -16157,12 +16162,12 @@
       <c r="K29">
         <v>32.71</v>
       </c>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="69"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="62"/>
       <c r="V29" s="17">
         <v>4</v>
       </c>
@@ -16177,30 +16182,30 @@
       <c r="Y29" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="Z29" s="90">
+      <c r="Z29" s="81">
         <f t="shared" si="4"/>
         <v>49.947499999999998</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="37">
+      <c r="A30" s="30">
         <v>4</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="27">
         <f t="shared" si="0"/>
         <v>52.019999999999996</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="36">
+      <c r="F30" s="30"/>
+      <c r="G30" s="29">
         <f t="shared" si="1"/>
         <v>11.3</v>
       </c>
@@ -16210,14 +16215,14 @@
       <c r="I30">
         <v>40.72</v>
       </c>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="67"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="60"/>
       <c r="V30" s="17">
         <v>4</v>
       </c>
@@ -16232,30 +16237,30 @@
       <c r="Y30" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Z30" s="90">
+      <c r="Z30" s="81">
         <f t="shared" si="4"/>
         <v>52.019999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="37">
+      <c r="A31" s="30">
         <v>4</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="27">
         <f t="shared" si="0"/>
         <v>60.602499999999999</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="36">
+      <c r="F31" s="30"/>
+      <c r="G31" s="29">
         <f t="shared" si="1"/>
         <v>5.8762499999999989</v>
       </c>
@@ -16271,12 +16276,12 @@
       <c r="K31">
         <v>61.16</v>
       </c>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="67"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="60"/>
       <c r="V31" s="17">
         <v>4</v>
       </c>
@@ -16291,30 +16296,30 @@
       <c r="Y31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Z31" s="90">
+      <c r="Z31" s="81">
         <f t="shared" si="4"/>
         <v>60.602499999999999</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="37">
+      <c r="A32" s="30">
         <v>4</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="27">
         <f t="shared" si="0"/>
         <v>56.38</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="36">
+      <c r="F32" s="30"/>
+      <c r="G32" s="29">
         <f t="shared" si="1"/>
         <v>8.8228571428571421</v>
       </c>
@@ -16339,9 +16344,9 @@
       <c r="N32">
         <v>61.06</v>
       </c>
-      <c r="O32" s="93"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="67"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="60"/>
       <c r="V32" s="17">
         <v>4</v>
       </c>
@@ -16356,53 +16361,53 @@
       <c r="Y32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Z32" s="90">
+      <c r="Z32" s="81">
         <f t="shared" si="4"/>
         <v>56.38</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38">
+      <c r="A33" s="31">
         <v>4</v>
       </c>
-      <c r="B33" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="42" t="s">
+      <c r="B33" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="27">
         <f>AVERAGE(H33:Q33)</f>
         <v>66.382000000000005</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="47">
+      <c r="F33" s="31"/>
+      <c r="G33" s="40">
         <f t="shared" si="1"/>
         <v>11.226400000000002</v>
       </c>
-      <c r="H33" s="56">
+      <c r="H33" s="49">
         <v>52.95</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="28">
         <v>52.98</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="28">
         <v>65.150000000000006</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="28">
         <v>73.290000000000006</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="28">
         <v>87.54</v>
       </c>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="76"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="69"/>
       <c r="V33" s="17">
         <v>4</v>
       </c>
@@ -16417,13 +16422,13 @@
       <c r="Y33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Z33" s="90">
+      <c r="Z33" s="81">
         <f t="shared" si="4"/>
         <v>66.382000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E34" s="63"/>
+      <c r="E34" s="56"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -16439,30 +16444,30 @@
       <c r="Z34" s="17"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B35" s="72"/>
-      <c r="C35" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B36" s="96"/>
-      <c r="C36" s="97"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B52" s="19"/>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="95"/>
       <c r="G52" t="s">
         <v>11</v>
       </c>
@@ -16490,7 +16495,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="96" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -16523,7 +16528,7 @@
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
+      <c r="A55" s="96"/>
       <c r="B55" s="7" t="s">
         <v>1</v>
       </c>
@@ -16554,7 +16559,7 @@
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
+      <c r="A56" s="96"/>
       <c r="B56" s="7" t="s">
         <v>3</v>
       </c>
@@ -16585,7 +16590,7 @@
       <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
+      <c r="A57" s="96"/>
       <c r="B57" s="7" t="s">
         <v>0</v>
       </c>
@@ -16616,7 +16621,7 @@
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
+      <c r="A58" s="96"/>
       <c r="B58" s="7" t="s">
         <v>4</v>
       </c>
@@ -16647,7 +16652,7 @@
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
+      <c r="A59" s="96"/>
       <c r="B59" s="7" t="s">
         <v>19</v>
       </c>
@@ -16678,7 +16683,7 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
+      <c r="A60" s="96"/>
       <c r="B60" s="7" t="s">
         <v>21</v>
       </c>
@@ -16709,7 +16714,7 @@
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29"/>
+      <c r="A61" s="96"/>
       <c r="B61" s="7" t="s">
         <v>20</v>
       </c>
